--- a/UnitTestHVACChecker/测试数据/测试数据_GB51251_2017_3_2_1.xlsx
+++ b/UnitTestHVACChecker/测试数据/测试数据_GB51251_2017_3_2_1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="57">
   <si>
     <t>房间1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>窗户类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>封闭楼梯间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,6 +226,14 @@
   </si>
   <si>
     <t>需专家复核此楼梯间是否还有其它开口满足设置要求</t>
+  </si>
+  <si>
+    <t>窗户有效面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,17,19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -583,17 +587,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.6328125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" customWidth="1"/>
     <col min="5" max="5" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -605,13 +609,13 @@
         <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -917,6 +921,23 @@
         <v>1</v>
       </c>
       <c r="E19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>-4</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="b">
         <v>1</v>
       </c>
     </row>
@@ -957,7 +978,7 @@
         <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
         <v>23</v>
@@ -966,19 +987,19 @@
         <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
         <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>39</v>
       </c>
       <c r="J1" t="s">
         <v>25</v>
       </c>
       <c r="K1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L1" t="s">
         <v>20</v>
@@ -1019,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1030,7 +1051,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1057,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1065,7 +1086,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -1095,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1103,7 +1124,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -1133,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1141,7 +1162,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -1171,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1179,7 +1200,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1209,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1247,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1576,7 +1597,7 @@
         <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
         <v>23</v>
@@ -1585,22 +1606,22 @@
         <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
         <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>39</v>
       </c>
       <c r="J1" t="s">
         <v>25</v>
       </c>
       <c r="K1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M1" t="s">
         <v>20</v>
@@ -1641,10 +1662,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1655,7 +1676,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3">
         <v>9</v>
@@ -1682,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1693,7 +1714,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -1723,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1731,7 +1752,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -1761,7 +1782,7 @@
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1769,7 +1790,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -1799,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1807,7 +1828,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1837,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1875,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2178,7 +2199,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="A1:XFD1048576"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2202,7 +2223,7 @@
         <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
         <v>23</v>
@@ -2211,10 +2232,10 @@
         <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s">
         <v>23</v>
@@ -2223,10 +2244,10 @@
         <v>25</v>
       </c>
       <c r="K1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M1" t="s">
         <v>20</v>
@@ -2243,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2272,13 +2293,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2313,7 +2334,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -2634,10 +2655,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2662,7 +2683,7 @@
         <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
         <v>23</v>
@@ -2671,10 +2692,10 @@
         <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s">
         <v>23</v>
@@ -2683,10 +2704,10 @@
         <v>25</v>
       </c>
       <c r="K1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M1" t="s">
         <v>20</v>
@@ -2703,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2727,10 +2748,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2741,10 +2762,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2768,10 +2789,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2782,10 +2803,10 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2809,10 +2830,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2820,37 +2841,37 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
         <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2861,10 +2882,10 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -2888,7 +2909,7 @@
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2896,19 +2917,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>10</v>
@@ -2928,19 +2952,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>7</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>8</v>
       </c>
       <c r="H8">
         <v>10</v>
@@ -2963,16 +2987,16 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>8</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>9</v>
       </c>
       <c r="H9">
         <v>10</v>
@@ -2995,16 +3019,16 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>9</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>10</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -3027,7 +3051,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3036,7 +3060,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -3059,16 +3083,16 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>11</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>12</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -3088,19 +3112,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>12</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
       </c>
       <c r="H13">
         <v>10</v>
@@ -3123,7 +3147,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3132,7 +3156,7 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -3155,7 +3179,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3164,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H15">
         <v>10</v>
@@ -3176,6 +3200,38 @@
         <v>5</v>
       </c>
       <c r="K15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16" t="b">
         <v>1</v>
       </c>
     </row>

--- a/UnitTestHVACChecker/测试数据/测试数据_GB51251_2017_3_2_1.xlsx
+++ b/UnitTestHVACChecker/测试数据/测试数据_GB51251_2017_3_2_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="18260" windowHeight="7080" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="18255" windowHeight="7080"/>
   </bookViews>
   <sheets>
     <sheet name="窗户" sheetId="21" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="58">
   <si>
     <t>房间1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,6 +234,9 @@
   <si>
     <t>7,17,19</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为排烟窗</t>
   </si>
 </sst>
 </file>
@@ -587,21 +590,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.6328125" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" customWidth="1"/>
-    <col min="5" max="5" width="14.08984375" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -617,8 +620,11 @@
       <c r="E1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -634,8 +640,11 @@
       <c r="E2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -651,8 +660,11 @@
       <c r="E3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -668,8 +680,11 @@
       <c r="E4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -685,8 +700,11 @@
       <c r="E5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -702,8 +720,11 @@
       <c r="E6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -719,8 +740,11 @@
       <c r="E7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -736,8 +760,11 @@
       <c r="E8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -753,8 +780,11 @@
       <c r="E9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -770,8 +800,11 @@
       <c r="E10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -787,8 +820,11 @@
       <c r="E11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -804,8 +840,11 @@
       <c r="E12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -821,8 +860,11 @@
       <c r="E13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -838,8 +880,11 @@
       <c r="E14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -855,8 +900,11 @@
       <c r="E15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -872,8 +920,11 @@
       <c r="E16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -889,8 +940,11 @@
       <c r="E17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -906,8 +960,11 @@
       <c r="E18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -923,8 +980,11 @@
       <c r="E19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -939,6 +999,9 @@
       </c>
       <c r="E20" t="b">
         <v>1</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -956,18 +1019,18 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
     <col min="5" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="15.08984375" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
     <col min="8" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="55.36328125" customWidth="1"/>
+    <col min="12" max="12" width="55.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1005,7 +1068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1043,7 +1106,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1081,7 +1144,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1119,7 +1182,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1157,7 +1220,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1195,7 +1258,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1233,7 +1296,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1271,7 +1334,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1303,7 +1366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1335,7 +1398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1367,7 +1430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1399,7 +1462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1431,7 +1494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1463,7 +1526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1495,7 +1558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1527,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1574,19 +1637,19 @@
       <selection activeCell="L1" sqref="L1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
     <col min="5" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="17.6328125" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
     <col min="8" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="50.6328125" customWidth="1"/>
-    <col min="13" max="13" width="55.36328125" customWidth="1"/>
+    <col min="12" max="12" width="50.625" customWidth="1"/>
+    <col min="13" max="13" width="55.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1627,7 +1690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1668,7 +1731,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1709,7 +1772,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1747,7 +1810,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1785,7 +1848,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1823,7 +1886,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1861,7 +1924,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1899,7 +1962,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1931,7 +1994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1963,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1995,7 +2058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2027,7 +2090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2059,7 +2122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2091,7 +2154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2123,7 +2186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2155,7 +2218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2202,17 +2265,17 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="20.36328125" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" customWidth="1"/>
-    <col min="7" max="7" width="18.26953125" customWidth="1"/>
-    <col min="12" max="12" width="50.6328125" customWidth="1"/>
-    <col min="13" max="13" width="39.453125" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="12" max="12" width="50.625" customWidth="1"/>
+    <col min="13" max="13" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -2253,7 +2316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2288,7 +2351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2323,7 +2386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2358,7 +2421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2390,7 +2453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2422,7 +2485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2454,7 +2517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2486,7 +2549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2518,7 +2581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2550,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2582,7 +2645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2614,7 +2677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2657,22 +2720,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="20.36328125" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" customWidth="1"/>
-    <col min="7" max="7" width="18.26953125" customWidth="1"/>
-    <col min="12" max="12" width="50.6328125" customWidth="1"/>
-    <col min="13" max="13" width="55.36328125" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="12" max="12" width="50.625" customWidth="1"/>
+    <col min="13" max="13" width="55.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -2713,7 +2776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2754,7 +2817,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2795,7 +2858,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2836,7 +2899,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2874,7 +2937,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2912,7 +2975,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2947,7 +3010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2979,7 +3042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3011,7 +3074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3043,7 +3106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3075,7 +3138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3107,7 +3170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3139,7 +3202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3171,7 +3234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3203,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>

--- a/UnitTestHVACChecker/测试数据/测试数据_GB51251_2017_3_2_1.xlsx
+++ b/UnitTestHVACChecker/测试数据/测试数据_GB51251_2017_3_2_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="18255" windowHeight="7080"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="18260" windowHeight="7080" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="窗户" sheetId="21" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="59">
   <si>
     <t>房间1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,6 +237,10 @@
   </si>
   <si>
     <t>是否为排烟窗</t>
+  </si>
+  <si>
+    <t>房间高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -592,19 +596,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="1" max="1" width="9.6328125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -624,7 +628,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -644,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -664,7 +668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -684,7 +688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -704,7 +708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -724,7 +728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -744,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -764,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -784,7 +788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -804,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -824,7 +828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -844,7 +848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -864,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -884,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -904,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -924,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -944,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -964,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -984,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1013,24 +1017,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="19.7265625" customWidth="1"/>
     <col min="5" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="15.125" customWidth="1"/>
-    <col min="8" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="55.375" customWidth="1"/>
+    <col min="7" max="7" width="15.08984375" customWidth="1"/>
+    <col min="8" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="55.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1062,13 +1066,16 @@
         <v>25</v>
       </c>
       <c r="K1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1099,14 +1106,17 @@
       <c r="J2">
         <v>5</v>
       </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1137,14 +1147,17 @@
       <c r="J3">
         <v>5</v>
       </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1175,14 +1188,17 @@
       <c r="J4">
         <v>5</v>
       </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1213,14 +1229,17 @@
       <c r="J5">
         <v>5</v>
       </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1251,14 +1270,17 @@
       <c r="J6">
         <v>5</v>
       </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1289,14 +1311,17 @@
       <c r="J7">
         <v>5</v>
       </c>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1327,14 +1352,17 @@
       <c r="J8">
         <v>5</v>
       </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1362,11 +1390,14 @@
       <c r="J9">
         <v>5</v>
       </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1394,11 +1425,14 @@
       <c r="J10">
         <v>5</v>
       </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1426,11 +1460,14 @@
       <c r="J11">
         <v>5</v>
       </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1458,11 +1495,14 @@
       <c r="J12">
         <v>5</v>
       </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1490,11 +1530,14 @@
       <c r="J13">
         <v>5</v>
       </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1522,11 +1565,14 @@
       <c r="J14">
         <v>5</v>
       </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1554,11 +1600,14 @@
       <c r="J15">
         <v>5</v>
       </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1586,11 +1635,14 @@
       <c r="J16">
         <v>5</v>
       </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1618,7 +1670,10 @@
       <c r="J17">
         <v>5</v>
       </c>
-      <c r="K17" t="b">
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1631,25 +1686,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M1048576"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="19.7265625" customWidth="1"/>
     <col min="5" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="17.625" customWidth="1"/>
-    <col min="8" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="50.625" customWidth="1"/>
-    <col min="13" max="13" width="55.375" customWidth="1"/>
+    <col min="7" max="7" width="17.6328125" customWidth="1"/>
+    <col min="8" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="50.6328125" customWidth="1"/>
+    <col min="14" max="14" width="55.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1681,16 +1736,19 @@
         <v>25</v>
       </c>
       <c r="K1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>41</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1721,17 +1779,20 @@
       <c r="J2">
         <v>5</v>
       </c>
-      <c r="K2" t="b">
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>42</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1762,17 +1823,20 @@
       <c r="J3">
         <v>5</v>
       </c>
-      <c r="K3" t="b">
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3" t="b">
         <v>0</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>43</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1803,14 +1867,17 @@
       <c r="J4">
         <v>5</v>
       </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1841,14 +1908,17 @@
       <c r="J5">
         <v>5</v>
       </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1879,14 +1949,17 @@
       <c r="J6">
         <v>5</v>
       </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1917,14 +1990,17 @@
       <c r="J7">
         <v>5</v>
       </c>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1955,14 +2031,17 @@
       <c r="J8">
         <v>5</v>
       </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1990,11 +2069,14 @@
       <c r="J9">
         <v>5</v>
       </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2022,11 +2104,14 @@
       <c r="J10">
         <v>5</v>
       </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2054,11 +2139,14 @@
       <c r="J11">
         <v>5</v>
       </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2086,11 +2174,14 @@
       <c r="J12">
         <v>5</v>
       </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2118,11 +2209,14 @@
       <c r="J13">
         <v>5</v>
       </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2150,11 +2244,14 @@
       <c r="J14">
         <v>5</v>
       </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2182,11 +2279,14 @@
       <c r="J15">
         <v>5</v>
       </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2214,11 +2314,14 @@
       <c r="J16">
         <v>5</v>
       </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2246,7 +2349,10 @@
       <c r="J17">
         <v>5</v>
       </c>
-      <c r="K17" t="b">
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2259,23 +2365,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
-    <col min="4" max="4" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="18.25" customWidth="1"/>
-    <col min="12" max="12" width="50.625" customWidth="1"/>
-    <col min="13" max="13" width="39.5" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" customWidth="1"/>
+    <col min="4" max="4" width="21.26953125" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" customWidth="1"/>
+    <col min="7" max="7" width="18.26953125" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="13" max="13" width="50.6328125" customWidth="1"/>
+    <col min="14" max="14" width="39.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -2304,19 +2411,22 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>41</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2345,13 +2455,16 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2380,13 +2493,16 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>5</v>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2415,13 +2531,16 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2447,13 +2566,16 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2479,13 +2601,16 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2511,13 +2636,16 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2543,13 +2671,16 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2575,13 +2706,16 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2607,13 +2741,16 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2639,13 +2776,16 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>5</v>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2671,13 +2811,16 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>5</v>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2703,9 +2846,12 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>5</v>
-      </c>
-      <c r="K13" t="b">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2718,24 +2864,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
-    <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="4" max="4" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="18.25" customWidth="1"/>
-    <col min="12" max="12" width="50.625" customWidth="1"/>
-    <col min="13" max="13" width="55.375" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="21.26953125" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" customWidth="1"/>
+    <col min="7" max="7" width="18.26953125" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="13" max="13" width="50.6328125" customWidth="1"/>
+    <col min="14" max="14" width="55.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -2761,22 +2908,25 @@
         <v>37</v>
       </c>
       <c r="I1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>41</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2802,22 +2952,25 @@
         <v>10</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>42</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2843,22 +2996,25 @@
         <v>10</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>5</v>
-      </c>
-      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3" t="b">
         <v>0</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>50</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2884,22 +3040,25 @@
         <v>10</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>54</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2925,19 +3084,22 @@
         <v>10</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2963,19 +3125,22 @@
         <v>10</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3001,16 +3166,19 @@
         <v>10</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3033,16 +3201,19 @@
         <v>10</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3065,16 +3236,19 @@
         <v>10</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3097,16 +3271,19 @@
         <v>10</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3129,16 +3306,19 @@
         <v>10</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11">
-        <v>5</v>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3161,16 +3341,19 @@
         <v>10</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12">
-        <v>5</v>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3193,16 +3376,19 @@
         <v>10</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J13">
-        <v>5</v>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3225,16 +3411,19 @@
         <v>10</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14">
-        <v>5</v>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3257,16 +3446,19 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15">
-        <v>5</v>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3289,12 +3481,15 @@
         <v>10</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16">
-        <v>5</v>
-      </c>
-      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16" t="b">
         <v>1</v>
       </c>
     </row>

--- a/UnitTestHVACChecker/测试数据/测试数据_GB51251_2017_3_2_1.xlsx
+++ b/UnitTestHVACChecker/测试数据/测试数据_GB51251_2017_3_2_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="18260" windowHeight="7080" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="18260" windowHeight="7080"/>
   </bookViews>
   <sheets>
     <sheet name="窗户" sheetId="21" r:id="rId1"/>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -605,6 +605,7 @@
     <col min="1" max="1" width="9.6328125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="14.90625" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" customWidth="1"/>
     <col min="5" max="5" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -776,10 +777,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -2866,7 +2867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
